--- a/Lab05/Lab5Elettronics.xlsx
+++ b/Lab05/Lab5Elettronics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\criri\Documents\Custom Office Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\criri\Politecnico Di Torino Studenti Dropbox\Cristina Rizzo\MagistralePolito\1Anno\1Semestre\ElectronicsForEmbeddedSystem\Laboratori\ElectronicsForEmbeddedSystemLaboratories\Lab05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABA2308-AC45-4C2B-87B5-AB6ABD8D8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C3F454-7DAF-4650-B377-C7FE60B03627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{641DD250-CC24-47D0-A7FD-34D2FD688117}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{641DD250-CC24-47D0-A7FD-34D2FD688117}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab5Elettronics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>𝛿</t>
   </si>
@@ -224,6 +224,33 @@
       </rPr>
       <t>triangle</t>
     </r>
+  </si>
+  <si>
+    <t>foto 1</t>
+  </si>
+  <si>
+    <t>foto 2,3</t>
+  </si>
+  <si>
+    <t>foto 4</t>
+  </si>
+  <si>
+    <t>foto 5</t>
+  </si>
+  <si>
+    <t>foto 6</t>
+  </si>
+  <si>
+    <t>foto 7</t>
+  </si>
+  <si>
+    <t>ftriangle</t>
+  </si>
+  <si>
+    <t>foto 8</t>
+  </si>
+  <si>
+    <t>Punto 2</t>
   </si>
 </sst>
 </file>
@@ -272,16 +299,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,66 +640,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6FB63F-A9E1-4AD2-8A69-F00245A0EC9C}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -685,38 +721,41 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>50*10^6</f>
         <v>50000000</v>
@@ -728,7 +767,7 @@
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>0.2</f>
         <v>0.2</v>
       </c>
@@ -736,101 +775,134 @@
         <f>D3-2</f>
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="3" t="str">
         <f>IF(F3&gt;255, _xlfn.BASE(CEILING(F3/16, 1), 2), _xlfn.BASE(F3,2))</f>
         <v>1010</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3" t="str">
+        <f>BIN2HEX(G3)</f>
+        <v>A</v>
+      </c>
+      <c r="I3">
         <f>ROUNDUP((A3/(B3*(F3+1)))-1, 0)</f>
         <v>454</v>
       </c>
-      <c r="I3" s="4" t="str">
-        <f>IF(H3&gt;255, _xlfn.BASE(CEILING(H3/16, 1), 2), _xlfn.BASE(H3, 2))</f>
+      <c r="J3" s="3" t="str">
+        <f>IF(I3&gt;255, _xlfn.BASE(CEILING(I3/16, 1), 2), _xlfn.BASE(I3, 2))</f>
         <v>11101</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="3" t="str">
+        <f>BIN2HEX(J3)</f>
+        <v>1D</v>
+      </c>
+      <c r="L3">
         <f>ROUNDUP((E3*(F3+1)),0)</f>
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f>IF(J3&gt;255, _xlfn.BASE(CEILING(J3/16,1),2),_xlfn.BASE(J3,2))</f>
+      <c r="M3" s="3" t="str">
+        <f>IF(L3&gt;255, _xlfn.BASE(CEILING(L3/16,1),2),_xlfn.BASE(L3,2))</f>
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="N3" s="3" t="str">
+        <f>BIN2HEX(M3)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
         <f>1/B3</f>
         <v>1E-4</v>
       </c>
-      <c r="N3">
-        <f>E3*L3</f>
+      <c r="Q3">
+        <f>E3*O3</f>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="P3">
-        <f>L3-N3</f>
+      <c r="S3">
+        <f>O3-Q3</f>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <f>B3/(2*(F3+1))</f>
         <v>454.54545454545456</v>
       </c>
+      <c r="X3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4">
-        <f t="shared" ref="A4:A8" si="0">50*10^6</f>
+        <f t="shared" ref="A4:A9" si="0">50*10^6</f>
         <v>50000000</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B8" si="1">10*10^3</f>
+        <f t="shared" ref="B4:B9" si="1">10*10^3</f>
         <v>10000</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>0.5</f>
         <v>0.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F8" si="2">D4-2</f>
+        <f t="shared" ref="F4:F9" si="2">D4-2</f>
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G8" si="3">IF(F4&gt;255, _xlfn.BASE(CEILING(F4/16, 1), 2), _xlfn.BASE(F4,2))</f>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G9" si="3">IF(F4&gt;255, _xlfn.BASE(CEILING(F4/16, 1), 2), _xlfn.BASE(F4,2))</f>
         <v>1010</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H8" si="4">ROUNDUP((A4/(B4*(F4+1)))-1, 0)</f>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4:H9" si="4">BIN2HEX(G4)</f>
+        <v>A</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I9" si="5">ROUNDUP((A4/(B4*(F4+1)))-1, 0)</f>
         <v>454</v>
       </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I8" si="5">IF(H4&gt;255, _xlfn.BASE(CEILING(H4/16, 1), 2), _xlfn.BASE(H4, 2))</f>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ref="J4:J9" si="6">IF(I4&gt;255, _xlfn.BASE(CEILING(I4/16, 1), 2), _xlfn.BASE(I4, 2))</f>
         <v>11101</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J8" si="6">ROUNDUP((E4*(F4+1)),0)</f>
+      <c r="K4" s="3" t="str">
+        <f t="shared" ref="K4:K9" si="7">BIN2HEX(J4)</f>
+        <v>1D</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="8">ROUNDUP((E4*(F4+1)),0)</f>
         <v>6</v>
       </c>
-      <c r="K4" s="4" t="str">
-        <f t="shared" ref="K4:K8" si="7">IF(J4&gt;255, _xlfn.BASE(CEILING(J4/16,1),2),_xlfn.BASE(J4,2))</f>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4:M10" si="9">IF(L4&gt;255, _xlfn.BASE(CEILING(L4/16,1),2),_xlfn.BASE(L4,2))</f>
         <v>110</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L8" si="8">1/B4</f>
+      <c r="N4" s="3" t="str">
+        <f t="shared" ref="N4:N9" si="10">BIN2HEX(M4)</f>
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O9" si="11">1/B4</f>
         <v>1E-4</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N8" si="9">E4*L4</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q9" si="12">E4*O4</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P8" si="10">L4-N4</f>
+      <c r="S4">
+        <f t="shared" ref="S4:S9" si="13">O4-Q4</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R8" si="11">B4/(2*(F4+1))</f>
+      <c r="U4">
+        <f t="shared" ref="U4:U9" si="14">B4/(2*(F4+1))</f>
         <v>454.54545454545456</v>
       </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>50000000</v>
@@ -842,7 +914,7 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>0.8</f>
         <v>0.8</v>
       </c>
@@ -850,44 +922,59 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1010</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3" t="str">
         <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
         <v>454</v>
       </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>11101</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="str">
+      <c r="K5" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>1001</v>
+        <v>1D</v>
       </c>
       <c r="L5">
         <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>1001</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="11"/>
         <v>1E-4</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="9"/>
+      <c r="Q5">
+        <f t="shared" si="12"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="10"/>
+      <c r="S5">
+        <f t="shared" si="13"/>
         <v>1.9999999999999998E-5</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="11"/>
+      <c r="U5">
+        <f t="shared" si="14"/>
         <v>454.54545454545456</v>
       </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>50000000</v>
@@ -900,7 +987,7 @@
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>0.2</f>
         <v>0.2</v>
       </c>
@@ -908,44 +995,59 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1100010</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3" t="str">
         <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>110010</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>10100</v>
+        <v>32</v>
       </c>
       <c r="L6">
         <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>10100</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="11"/>
         <v>1E-4</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="9"/>
+      <c r="Q6">
+        <f t="shared" si="12"/>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="10"/>
+      <c r="S6">
+        <f t="shared" si="13"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="11"/>
+      <c r="U6">
+        <f t="shared" si="14"/>
         <v>50.505050505050505</v>
       </c>
+      <c r="X6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>50000000</v>
@@ -958,7 +1060,7 @@
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>0.5</f>
         <v>0.5</v>
       </c>
@@ -966,44 +1068,59 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1100010</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3" t="str">
         <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>110010</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>110010</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>110010</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
         <v>1E-4</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="9"/>
+      <c r="Q7">
+        <f t="shared" si="12"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="10"/>
+      <c r="S7">
+        <f t="shared" si="13"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="11"/>
+      <c r="U7">
+        <f t="shared" si="14"/>
         <v>50.505050505050505</v>
       </c>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>50000000</v>
@@ -1016,7 +1133,7 @@
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f>0.8</f>
         <v>0.8</v>
       </c>
@@ -1024,64 +1141,157 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1100010</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3" t="str">
         <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>110010</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>1010000</v>
+        <v>32</v>
       </c>
       <c r="L8">
         <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>1010000</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="11"/>
         <v>1E-4</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="13"/>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>50.505050505050505</v>
+      </c>
+      <c r="X8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>50000000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1100010</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>110010</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="M9" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="P8">
+        <v>1100011</v>
+      </c>
+      <c r="N9" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>1.9999999999999998E-5</v>
-      </c>
-      <c r="R8">
+        <v>63</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="12"/>
+        <v>1E-4</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="14"/>
         <v>50.505050505050505</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="E10" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="E11" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
